--- a/v2/Imports/country_template.xlsx
+++ b/v2/Imports/country_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\argip\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT Repositories\McDermott\v2\Imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C78710B-8545-4C30-9E1A-1ECC46713877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261FBF81-2495-4BEA-A049-07863A53E77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1607,7 +1607,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table" displayName="Table" ref="A1:B250" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table" displayName="Table" ref="A1:B249" headerRowCount="0">
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Code"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
@@ -1915,8 +1915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H135" sqref="H135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
